--- a/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A25F594-7C68-4769-AED5-1662F197D21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD97BF1-CEE5-41F1-A4B2-74FC6C83E8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
-    <sheet name="Conguagli spese" sheetId="1" r:id="rId1"/>
-    <sheet name="Conguagli spese Prorata" sheetId="3" r:id="rId2"/>
+    <sheet name="Conguagli spese" sheetId="4" r:id="rId1"/>
+    <sheet name="Conguagli spese Pro-rata" sheetId="5" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Conguagli spese'!$A$1:$G$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Conguagli spese Prorata'!$A$1:$G$29</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -145,17 +141,14 @@
     <t>Conguaglio</t>
   </si>
   <si>
-    <t>Differenze</t>
+    <t>Controllo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,43 +165,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,21 +179,7 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -253,76 +198,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="15">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <strike val="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -367,297 +485,31 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -675,88 +527,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A12:G25" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A12:G25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Totale" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{48D01DED-AE88-46F7-B2D3-DC7AC7D698CD}" name="Tipo" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{687F9840-998B-484E-9F28-0E94F3AD28F1}" name="Differenze" dataDxfId="26">
-      <calculatedColumnFormula>$D13+$E13+$F13</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}" name="Tabella4" displayName="Tabella4" ref="A5:E10" totalsRowShown="0">
-  <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5FA9E7D7-202A-4E1B-A634-5C928F0C3DAF}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="22"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:G25" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A12:G25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{2C370E16-C2F9-4889-B618-1E8D4B554027}" name="Differenze" dataDxfId="13">
-      <calculatedColumnFormula>$B13-SUM($D13:$F13)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3E937DA-C300-455F-B7AC-4A45B5479E6F}" name="Tabella47" displayName="Tabella47" ref="A5:E10" totalsRowShown="0">
-  <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8F561E8B-0447-4EB2-AC66-B959F54EBCE2}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{26D98444-E718-4DAF-A732-FD0A8C45901A}" name="Tabella7" displayName="Tabella7" ref="A27:E29" totalsRowShown="0">
-  <autoFilter ref="A27:E29" xr:uid="{26D98444-E718-4DAF-A732-FD0A8C45901A}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{069F6DA9-4A71-4C57-8936-857FEA86101B}" name="Calcolo prorata"/>
-    <tableColumn id="2" xr3:uid="{253E7923-15EA-4A25-9E0B-638EE573F3C5}" name="Mesi"/>
-    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="8">
-      <calculatedColumnFormula>$F$23/12*2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="6">
-      <calculatedColumnFormula>$C28+$D28</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,30 +845,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD82E2A4-2D0C-4E27-8A01-B72A4F39E833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E87A6D9-8C65-45B6-8476-D92DBFA04469}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1111,532 +871,532 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>45292</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="2">
         <v>45657</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
         <v>54</v>
       </c>
-      <c r="C6" s="13">
+      <c r="E6" s="11">
         <v>85</v>
       </c>
-      <c r="D6" s="13">
+      <c r="F6" s="11">
         <v>124</v>
       </c>
-      <c r="E6" s="13">
-        <f>SUM($B6:$D6)</f>
+      <c r="G6" s="11">
+        <f>SUM($D6:$F6)</f>
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
         <v>10241</v>
       </c>
-      <c r="C7" s="13">
+      <c r="E7" s="11">
         <v>13400</v>
       </c>
-      <c r="D7" s="13">
+      <c r="F7" s="11">
         <v>22578</v>
       </c>
-      <c r="E7" s="13">
-        <f>SUM($B7:$D7)</f>
+      <c r="G7" s="11">
+        <f>SUM($D7:$F7)</f>
         <v>46219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
         <v>1104</v>
       </c>
-      <c r="C8" s="13">
+      <c r="E8" s="11">
         <v>1210</v>
       </c>
-      <c r="D8" s="13">
+      <c r="F8" s="11">
         <v>1898</v>
       </c>
-      <c r="E8" s="13">
-        <f>SUM($B8:$D8)</f>
+      <c r="G8" s="11">
+        <f>SUM($D8:$F8)</f>
         <v>4212</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="13">
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
-        <f>SUM($B9:$D9)</f>
+      <c r="G9" s="11">
+        <f>SUM($D9:$F9)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="13">
         <v>4000</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5">
-        <f>$B13/$E$7*$B$7</f>
+      <c r="D13" s="14">
+        <f>$B13/$G$7*$D$7</f>
         <v>886.30217010320439</v>
       </c>
-      <c r="E13" s="5">
-        <f>$B13/$E$7*$C$7</f>
+      <c r="E13" s="14">
+        <f>$B13/$G$7*$E$7</f>
         <v>1159.6962288236441</v>
       </c>
-      <c r="F13" s="5">
-        <f>$B13/$E$7*$D$7</f>
+      <c r="F13" s="14">
+        <f>$B13/$G$7*$F$7</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="14">
         <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="13">
         <v>2000</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5">
-        <f>$B14/$E$6*$B$6</f>
+      <c r="D14" s="14">
+        <f>$B14/$G$6*$D$6</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="E14" s="5">
-        <f>$B14/$E$6*$C$6</f>
+      <c r="E14" s="14">
+        <f>$B14/$G$6*$E$6</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="F14" s="5">
-        <f>$B14/$E$6*$D$6</f>
+      <c r="F14" s="14">
+        <f>$B14/$G$6*$F$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="14">
         <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="13">
         <v>200</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" ref="D15:D18" si="1">$B15/$E$6*$B$6</f>
+      <c r="D15" s="14">
+        <f>$B15/$G$6*$D$6</f>
         <v>41.064638783269956</v>
       </c>
-      <c r="E15" s="5">
-        <f>$B15/$E$6*$C$6</f>
+      <c r="E15" s="14">
+        <f>$B15/$G$6*$E$6</f>
         <v>64.638783269961976</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15:F18" si="2">$B15/$E$6*$D$6</f>
+      <c r="F15" s="14">
+        <f>$B15/$G$6*$F$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="13">
         <v>50</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5">
-        <f t="shared" si="1"/>
+      <c r="D16" s="14">
+        <f>$B16/$G$6*$D$6</f>
         <v>10.266159695817489</v>
       </c>
-      <c r="E16" s="5">
-        <f t="shared" ref="E16:E18" si="3">$B16/$E$6*$C$6</f>
+      <c r="E16" s="14">
+        <f>$B16/$G$6*$E$6</f>
         <v>16.159695817490494</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
+      <c r="F16" s="14">
+        <f>$B16/$G$6*$F$6</f>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="13">
         <v>800</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" si="1"/>
+      <c r="D17" s="14">
+        <f>$B17/$G$6*$D$6</f>
         <v>164.25855513307982</v>
       </c>
-      <c r="E17" s="5">
-        <f t="shared" si="3"/>
+      <c r="E17" s="14">
+        <f>$B17/$G$6*$E$6</f>
         <v>258.55513307984791</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
+      <c r="F17" s="14">
+        <f>$B17/$G$6*$F$6</f>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="13">
         <v>300</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" si="1"/>
+      <c r="D18" s="14">
+        <f>$B18/$G$6*$D$6</f>
         <v>61.596958174904941</v>
       </c>
-      <c r="E18" s="5">
-        <f t="shared" si="3"/>
+      <c r="E18" s="14">
+        <f>$B18/$G$6*$E$6</f>
         <v>96.958174904942965</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
+      <c r="F18" s="14">
+        <f>$B18/$G$6*$F$6</f>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="13">
         <v>400</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="5">
-        <f>$B19/$E$8*$B$8</f>
+      <c r="D19" s="14">
+        <f>$B19/$G$8*$D$8</f>
         <v>104.84330484330485</v>
       </c>
-      <c r="E19" s="5">
-        <f>$B19/$E$8*$C$8</f>
+      <c r="E19" s="14">
+        <f>$B19/$G$8*$E$8</f>
         <v>114.90978157644825</v>
       </c>
-      <c r="F19" s="5">
-        <f>$B19/$E$8*$D$8</f>
+      <c r="F19" s="14">
+        <f>$B19/$G$8*$F$8</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="13">
         <v>500</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="5">
-        <f>$B20/$E$6*$B$6</f>
+      <c r="D20" s="14">
+        <f>$B20/$G$6*$D$6</f>
         <v>102.66159695817491</v>
       </c>
-      <c r="E20" s="5">
-        <f>$B20/$E$6*$C$6</f>
+      <c r="E20" s="14">
+        <f>$B20/$G$6*$E$6</f>
         <v>161.59695817490496</v>
       </c>
-      <c r="F20" s="5">
-        <f>$B20/$E$6*$D$6</f>
+      <c r="F20" s="14">
+        <f>$B20/$G$6*$F$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="13">
         <v>100</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="5">
-        <f>$B21/$E$6*$B$6</f>
+      <c r="D21" s="14">
+        <f>$B21/$G$6*$D$6</f>
         <v>20.532319391634978</v>
       </c>
-      <c r="E21" s="5">
-        <f>$B21/$E$6*$C$6</f>
+      <c r="E21" s="14">
+        <f>$B21/$G$6*$E$6</f>
         <v>32.319391634980988</v>
       </c>
-      <c r="F21" s="5">
-        <f>$B21/$E$6*$D$6</f>
+      <c r="F21" s="14">
+        <f>$B21/$G$6*$F$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="13">
         <v>1250</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="5">
-        <f>$B22/$E$9*$B$9</f>
+      <c r="D22" s="14">
+        <f>$B22/$G$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E22" s="5">
-        <f>$B22/$E$9*$C$9</f>
+      <c r="E22" s="14">
+        <f>$B22/$G$9*$E$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F22" s="5">
-        <f>$B22/$E$9*$D$9</f>
+      <c r="F22" s="14">
+        <f>$B22/$G$9*$F$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="G22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="23">
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25">
         <f>SUBTOTAL(109,D13:D22)</f>
         <v>2218.8387575827578</v>
       </c>
-      <c r="E23" s="16">
-        <f t="shared" ref="E23:F23" si="4">SUBTOTAL(109,E13:E22)</f>
+      <c r="E23" s="25">
+        <f t="shared" ref="E23:F23" si="1">SUBTOTAL(109,E13:E22)</f>
         <v>2967.8886466485078</v>
       </c>
-      <c r="F23" s="16">
-        <f t="shared" si="4"/>
+      <c r="F23" s="25">
+        <f t="shared" si="1"/>
         <v>4413.2725957687344</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="G23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="27">
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="D24" s="7">
+      <c r="C24" s="28"/>
+      <c r="D24" s="29">
         <v>-2000</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="29">
         <v>-3000</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="29">
         <v>-4200</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="G24" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="13">
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
-      <c r="D25" s="9">
+      <c r="C25" s="5"/>
+      <c r="D25" s="14">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="14">
         <f>$E23+$E24</f>
         <v>-32.111353351492198</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="14">
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G13:G25" calculatedColumn="1"/>
-    <ignoredError sqref="D19:F19" formula="1"/>
-  </ignoredErrors>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B029749-BA36-4C12-8B1C-4D1814EDCC2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55370CAB-7114-4C69-9786-8ADBC35F7855}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1649,565 +1409,563 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>45292</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="2">
         <v>45657</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="G5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="3">
         <v>54</v>
       </c>
-      <c r="C6" s="13">
+      <c r="E6" s="4">
         <v>85</v>
       </c>
-      <c r="D6" s="13">
+      <c r="F6" s="4">
         <v>124</v>
       </c>
-      <c r="E6" s="13">
-        <f>SUM($B6:$D6)</f>
+      <c r="G6" s="4">
+        <f>SUM($D6:$F6)</f>
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>10241</v>
       </c>
-      <c r="C7" s="13">
+      <c r="E7" s="4">
         <v>13400</v>
       </c>
-      <c r="D7" s="13">
+      <c r="F7" s="4">
         <v>22578</v>
       </c>
-      <c r="E7" s="13">
-        <f>SUM($B7:$D7)</f>
+      <c r="G7" s="4">
+        <f>SUM($D7:$F7)</f>
         <v>46219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>1104</v>
       </c>
-      <c r="C8" s="13">
+      <c r="E8" s="4">
         <v>1210</v>
       </c>
-      <c r="D8" s="13">
+      <c r="F8" s="4">
         <v>1898</v>
       </c>
-      <c r="E8" s="13">
-        <f>SUM($B8:$D8)</f>
+      <c r="G8" s="4">
+        <f>SUM($D8:$F8)</f>
         <v>4212</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="13">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
-        <f>SUM($B9:$D9)</f>
+      <c r="G9" s="4">
+        <f>SUM($D9:$F9)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <v>4000</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5">
-        <f>$B13/$E$7*$B$7</f>
+      <c r="D13" s="14">
+        <f>$B13/$G$7*$D$7</f>
         <v>886.30217010320439</v>
       </c>
-      <c r="E13" s="5">
-        <f>$B13/$E$7*$C$7</f>
+      <c r="E13" s="14">
+        <f>$B13/$G$7*$E$7</f>
         <v>1159.6962288236441</v>
       </c>
-      <c r="F13" s="5">
-        <f>$B13/$E$7*$D$7</f>
+      <c r="F13" s="14">
+        <f>$B13/$G$7*$F$7</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="14">
         <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="14">
         <v>2000</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5">
-        <f>$B14/$E$6*$B$6</f>
+      <c r="D14" s="14">
+        <f>$B14/$G$6*$D$6</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="E14" s="5">
-        <f>$B14/$E$6*$C$6</f>
+      <c r="E14" s="14">
+        <f>$B14/$G$6*$E$6</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="F14" s="5">
-        <f>$B14/$E$6*$D$6</f>
+      <c r="F14" s="14">
+        <f>$B14/$G$6*$F$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="14">
         <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="14">
         <v>200</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" ref="D15:D18" si="1">$B15/$E$6*$B$6</f>
+      <c r="D15" s="14">
+        <f>$B15/$G$6*$D$6</f>
         <v>41.064638783269956</v>
       </c>
-      <c r="E15" s="5">
-        <f>$B15/$E$6*$C$6</f>
+      <c r="E15" s="14">
+        <f>$B15/$G$6*$E$6</f>
         <v>64.638783269961976</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15:F18" si="2">$B15/$E$6*$D$6</f>
+      <c r="F15" s="14">
+        <f>$B15/$G$6*$F$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="14">
         <v>50</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5">
-        <f t="shared" si="1"/>
+      <c r="D16" s="14">
+        <f>$B16/$G$6*$D$6</f>
         <v>10.266159695817489</v>
       </c>
-      <c r="E16" s="5">
-        <f t="shared" ref="E16:E18" si="3">$B16/$E$6*$C$6</f>
+      <c r="E16" s="14">
+        <f>$B16/$G$6*$E$6</f>
         <v>16.159695817490494</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
+      <c r="F16" s="14">
+        <f>$B16/$G$6*$F$6</f>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="14">
         <v>800</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" si="1"/>
+      <c r="D17" s="14">
+        <f>$B17/$G$6*$D$6</f>
         <v>164.25855513307982</v>
       </c>
-      <c r="E17" s="5">
-        <f t="shared" si="3"/>
+      <c r="E17" s="14">
+        <f>$B17/$G$6*$E$6</f>
         <v>258.55513307984791</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
+      <c r="F17" s="14">
+        <f>$B17/$G$6*$F$6</f>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="14">
         <v>300</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" si="1"/>
+      <c r="D18" s="14">
+        <f>$B18/$G$6*$D$6</f>
         <v>61.596958174904941</v>
       </c>
-      <c r="E18" s="5">
-        <f t="shared" si="3"/>
+      <c r="E18" s="14">
+        <f>$B18/$G$6*$E$6</f>
         <v>96.958174904942965</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
+      <c r="F18" s="14">
+        <f>$B18/$G$6*$F$6</f>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="14">
         <v>400</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="5">
-        <f>$B19/$E$8*$B$8</f>
+      <c r="D19" s="14">
+        <f>$B19/$G$8*$D$8</f>
         <v>104.84330484330485</v>
       </c>
-      <c r="E19" s="5">
-        <f>$B19/$E$8*$C$8</f>
+      <c r="E19" s="14">
+        <f>$B19/$G$8*$E$8</f>
         <v>114.90978157644825</v>
       </c>
-      <c r="F19" s="5">
-        <f>$B19/$E$8*$D$8</f>
+      <c r="F19" s="14">
+        <f>$B19/$G$8*$F$8</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="14">
         <v>500</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="5">
-        <f>$B20/$E$6*$B$6</f>
+      <c r="D20" s="14">
+        <f>$B20/$G$6*$D$6</f>
         <v>102.66159695817491</v>
       </c>
-      <c r="E20" s="5">
-        <f>$B20/$E$6*$C$6</f>
+      <c r="E20" s="14">
+        <f>$B20/$G$6*$E$6</f>
         <v>161.59695817490496</v>
       </c>
-      <c r="F20" s="5">
-        <f>$B20/$E$6*$D$6</f>
+      <c r="F20" s="14">
+        <f>$B20/$G$6*$F$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="14">
         <v>100</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="5">
-        <f>$B21/$E$6*$B$6</f>
+      <c r="D21" s="14">
+        <f>$B21/$G$6*$D$6</f>
         <v>20.532319391634978</v>
       </c>
-      <c r="E21" s="5">
-        <f>$B21/$E$6*$C$6</f>
+      <c r="E21" s="14">
+        <f>$B21/$G$6*$E$6</f>
         <v>32.319391634980988</v>
       </c>
-      <c r="F21" s="5">
-        <f>$B21/$E$6*$D$6</f>
+      <c r="F21" s="14">
+        <f>$B21/$G$6*$F$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="14">
         <v>1250</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="5">
-        <f>$B22/$E$9*$B$9</f>
+      <c r="D22" s="14">
+        <f>$B22/$G$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E22" s="5">
-        <f>$B22/$E$9*$C$9</f>
+      <c r="E22" s="14">
+        <f>$B22/$G$9*$E$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F22" s="5">
-        <f>$B22/$E$9*$D$9</f>
+      <c r="F22" s="14">
+        <f>$B22/$G$9*$F$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="G22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="25">
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25">
         <f>SUBTOTAL(109,D13:D22)</f>
         <v>2218.8387575827578</v>
       </c>
-      <c r="E23" s="16">
-        <f t="shared" ref="E23:F23" si="4">SUBTOTAL(109,E13:E22)</f>
+      <c r="E23" s="25">
+        <f t="shared" ref="E23:F23" si="1">SUBTOTAL(109,E13:E22)</f>
         <v>2967.8886466485078</v>
       </c>
-      <c r="F23" s="16">
-        <f t="shared" si="4"/>
+      <c r="F23" s="25">
+        <f t="shared" si="1"/>
         <v>4413.2725957687344</v>
       </c>
-      <c r="G23" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="G23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="29">
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="D24" s="7">
+      <c r="C24" s="28"/>
+      <c r="D24" s="29">
         <v>-2000</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="29">
         <v>-3000</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="29">
         <v>-4200</v>
       </c>
-      <c r="G24" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="G24" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="14">
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
-      <c r="D25" s="9">
+      <c r="C25" s="5"/>
+      <c r="D25" s="14">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="14">
         <f>$E23+$E24</f>
         <v>-32.111353351492198</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="14">
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="11">
         <v>10</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <f>$F$23/12*10</f>
         <v>3677.727163140612</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="13">
         <v>-3500</v>
       </c>
-      <c r="E28" s="12">
-        <f t="shared" ref="E28:E29" si="5">$C28+$D28</f>
+      <c r="E28" s="13">
+        <f t="shared" ref="E28:E29" si="2">$C28+$D28</f>
         <v>177.72716314061199</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="11">
         <v>2</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <f>$F$23/12*2</f>
         <v>735.5454326281224</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="13">
         <v>-700</v>
       </c>
-      <c r="E29" s="12">
-        <f t="shared" si="5"/>
+      <c r="E29" s="13">
+        <f t="shared" si="2"/>
         <v>35.545432628122398</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D19:F19" formula="1"/>
-  </ignoredErrors>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD97BF1-CEE5-41F1-A4B2-74FC6C83E8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96F1B1-CEE5-46DB-81EB-6B81168966C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -304,21 +304,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,84 +367,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -440,56 +418,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF7C2C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF7C2C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -498,16 +426,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -879,21 +797,21 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -988,35 +906,26 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1024,25 +933,25 @@
       <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="33">
         <v>4000</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="36">
         <f>$B13/$G$7*$D$7</f>
         <v>886.30217010320439</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="36">
         <f>$B13/$G$7*$E$7</f>
         <v>1159.6962288236441</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="36">
         <f>$B13/$G$7*$F$7</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="36">
         <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
@@ -1051,25 +960,25 @@
       <c r="A14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="33">
         <v>2000</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="36">
         <f>$B14/$G$6*$D$6</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="36">
         <f>$B14/$G$6*$E$6</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="36">
         <f>$B14/$G$6*$F$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="36">
         <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
@@ -1078,25 +987,25 @@
       <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="33">
         <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="36">
         <f>$B15/$G$6*$D$6</f>
         <v>41.064638783269956</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="36">
         <f>$B15/$G$6*$E$6</f>
         <v>64.638783269961976</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="36">
         <f>$B15/$G$6*$F$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1105,25 +1014,25 @@
       <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="33">
         <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="36">
         <f>$B16/$G$6*$D$6</f>
         <v>10.266159695817489</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="36">
         <f>$B16/$G$6*$E$6</f>
         <v>16.159695817490494</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="36">
         <f>$B16/$G$6*$F$6</f>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1132,25 +1041,25 @@
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="33">
         <v>800</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="36">
         <f>$B17/$G$6*$D$6</f>
         <v>164.25855513307982</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="36">
         <f>$B17/$G$6*$E$6</f>
         <v>258.55513307984791</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="36">
         <f>$B17/$G$6*$F$6</f>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1159,25 +1068,25 @@
       <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="33">
         <v>300</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="36">
         <f>$B18/$G$6*$D$6</f>
         <v>61.596958174904941</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="36">
         <f>$B18/$G$6*$E$6</f>
         <v>96.958174904942965</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="36">
         <f>$B18/$G$6*$F$6</f>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1186,25 +1095,25 @@
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="33">
         <v>400</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="36">
         <f>$B19/$G$8*$D$8</f>
         <v>104.84330484330485</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="36">
         <f>$B19/$G$8*$E$8</f>
         <v>114.90978157644825</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="36">
         <f>$B19/$G$8*$F$8</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1213,25 +1122,25 @@
       <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="33">
         <v>500</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="36">
         <f>$B20/$G$6*$D$6</f>
         <v>102.66159695817491</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="36">
         <f>$B20/$G$6*$E$6</f>
         <v>161.59695817490496</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="36">
         <f>$B20/$G$6*$F$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1240,25 +1149,25 @@
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="33">
         <v>100</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="36">
         <f>$B21/$G$6*$D$6</f>
         <v>20.532319391634978</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="36">
         <f>$B21/$G$6*$E$6</f>
         <v>32.319391634980988</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="36">
         <f>$B21/$G$6*$F$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1267,74 +1176,74 @@
       <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="33">
         <v>1250</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="36">
         <f>$B22/$G$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="36">
         <f>$B22/$G$9*$E$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="36">
         <f>$B22/$G$9*$F$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="34">
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25">
+      <c r="C23" s="17"/>
+      <c r="D23" s="37">
         <f>SUBTOTAL(109,D13:D22)</f>
         <v>2218.8387575827578</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="37">
         <f t="shared" ref="E23:F23" si="1">SUBTOTAL(109,E13:E22)</f>
         <v>2967.8886466485078</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="37">
         <f t="shared" si="1"/>
         <v>4413.2725957687344</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="35">
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29">
+      <c r="C24" s="19"/>
+      <c r="D24" s="38">
         <v>-2000</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="38">
         <v>-3000</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="38">
         <v>-4200</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1343,24 +1252,24 @@
       <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="33">
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="14">
+      <c r="D25" s="36">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="36">
         <f>$E23+$E24</f>
         <v>-32.111353351492198</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="36">
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1370,10 +1279,10 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1417,30 +1326,30 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="3">
         <v>54</v>
       </c>
@@ -1527,25 +1436,25 @@
       <c r="G10" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1553,25 +1462,25 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="36">
         <v>4000</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="36">
         <f>$B13/$G$7*$D$7</f>
         <v>886.30217010320439</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="36">
         <f>$B13/$G$7*$E$7</f>
         <v>1159.6962288236441</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="36">
         <f>$B13/$G$7*$F$7</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="36">
         <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
@@ -1580,25 +1489,25 @@
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="36">
         <v>2000</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="36">
         <f>$B14/$G$6*$D$6</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="36">
         <f>$B14/$G$6*$E$6</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="36">
         <f>$B14/$G$6*$F$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="36">
         <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
@@ -1607,25 +1516,25 @@
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="36">
         <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="36">
         <f>$B15/$G$6*$D$6</f>
         <v>41.064638783269956</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="36">
         <f>$B15/$G$6*$E$6</f>
         <v>64.638783269961976</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="36">
         <f>$B15/$G$6*$F$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1634,25 +1543,25 @@
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="36">
         <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="36">
         <f>$B16/$G$6*$D$6</f>
         <v>10.266159695817489</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="36">
         <f>$B16/$G$6*$E$6</f>
         <v>16.159695817490494</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="36">
         <f>$B16/$G$6*$F$6</f>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1661,25 +1570,25 @@
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="36">
         <v>800</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="36">
         <f>$B17/$G$6*$D$6</f>
         <v>164.25855513307982</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="36">
         <f>$B17/$G$6*$E$6</f>
         <v>258.55513307984791</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="36">
         <f>$B17/$G$6*$F$6</f>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1688,25 +1597,25 @@
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="36">
         <v>300</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="36">
         <f>$B18/$G$6*$D$6</f>
         <v>61.596958174904941</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="36">
         <f>$B18/$G$6*$E$6</f>
         <v>96.958174904942965</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="36">
         <f>$B18/$G$6*$F$6</f>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1715,25 +1624,25 @@
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="36">
         <v>400</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="36">
         <f>$B19/$G$8*$D$8</f>
         <v>104.84330484330485</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="36">
         <f>$B19/$G$8*$E$8</f>
         <v>114.90978157644825</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="36">
         <f>$B19/$G$8*$F$8</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1742,25 +1651,25 @@
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="36">
         <v>500</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="36">
         <f>$B20/$G$6*$D$6</f>
         <v>102.66159695817491</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="36">
         <f>$B20/$G$6*$E$6</f>
         <v>161.59695817490496</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="36">
         <f>$B20/$G$6*$F$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1769,25 +1678,25 @@
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="36">
         <v>100</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="36">
         <f>$B21/$G$6*$D$6</f>
         <v>20.532319391634978</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="36">
         <f>$B21/$G$6*$E$6</f>
         <v>32.319391634980988</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="36">
         <f>$B21/$G$6*$F$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1796,74 +1705,74 @@
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="36">
         <v>1250</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="36">
         <f>$B22/$G$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="36">
         <f>$B22/$G$9*$E$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="36">
         <f>$B22/$G$9*$F$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="37">
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25">
+      <c r="C23" s="17"/>
+      <c r="D23" s="37">
         <f>SUBTOTAL(109,D13:D22)</f>
         <v>2218.8387575827578</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="37">
         <f t="shared" ref="E23:F23" si="1">SUBTOTAL(109,E13:E22)</f>
         <v>2967.8886466485078</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="37">
         <f t="shared" si="1"/>
         <v>4413.2725957687344</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="38">
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29">
+      <c r="C24" s="19"/>
+      <c r="D24" s="38">
         <v>-2000</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="38">
         <v>-3000</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="38">
         <v>-4200</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1872,42 +1781,42 @@
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="36">
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="14">
+      <c r="D25" s="36">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="36">
         <f>$E23+$E24</f>
         <v>-32.111353351492198</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="36">
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1918,14 +1827,14 @@
       <c r="B28" s="11">
         <v>10</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="33">
         <f>$F$23/12*10</f>
         <v>3677.727163140612</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="33">
         <v>-3500</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="33">
         <f t="shared" ref="E28:E29" si="2">$C28+$D28</f>
         <v>177.72716314061199</v>
       </c>
@@ -1937,32 +1846,32 @@
       <c r="B29" s="11">
         <v>2</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="33">
         <f>$F$23/12*2</f>
         <v>735.5454326281224</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="33">
         <v>-700</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="33">
         <f t="shared" si="2"/>
         <v>35.545432628122398</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96F1B1-CEE5-46DB-81EB-6B81168966C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F82E3B-521E-491C-8A73-C2319A32A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -214,37 +214,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -281,6 +250,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -289,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -298,15 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,58 +312,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -378,6 +343,51 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,486 +807,492 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="6">
         <v>54</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>85</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <v>124</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <f>SUM($D6:$F6)</f>
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="6">
         <v>10241</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>13400</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>22578</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <f>SUM($D7:$F7)</f>
         <v>46219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="6">
         <v>1104</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>1210</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>1898</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <f>SUM($D8:$F8)</f>
         <v>4212</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <f>SUM($D9:$F9)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="33">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="18">
         <v>4000</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="21">
         <f>$B13/$G$7*$D$7</f>
         <v>886.30217010320439</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="21">
         <f>$B13/$G$7*$E$7</f>
         <v>1159.6962288236441</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="21">
         <f>$B13/$G$7*$F$7</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="21">
         <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="18">
         <v>2000</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="21">
         <f>$B14/$G$6*$D$6</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="21">
         <f>$B14/$G$6*$E$6</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="21">
         <f>$B14/$G$6*$F$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="21">
         <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="18">
         <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="21">
         <f>$B15/$G$6*$D$6</f>
         <v>41.064638783269956</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="21">
         <f>$B15/$G$6*$E$6</f>
         <v>64.638783269961976</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="21">
         <f>$B15/$G$6*$F$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="18">
         <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="21">
         <f>$B16/$G$6*$D$6</f>
         <v>10.266159695817489</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="21">
         <f>$B16/$G$6*$E$6</f>
         <v>16.159695817490494</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="21">
         <f>$B16/$G$6*$F$6</f>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="18">
         <v>800</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="21">
         <f>$B17/$G$6*$D$6</f>
         <v>164.25855513307982</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="21">
         <f>$B17/$G$6*$E$6</f>
         <v>258.55513307984791</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="21">
         <f>$B17/$G$6*$F$6</f>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="18">
         <v>300</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="21">
         <f>$B18/$G$6*$D$6</f>
         <v>61.596958174904941</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="21">
         <f>$B18/$G$6*$E$6</f>
         <v>96.958174904942965</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="21">
         <f>$B18/$G$6*$F$6</f>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="18">
         <v>400</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="21">
         <f>$B19/$G$8*$D$8</f>
         <v>104.84330484330485</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="21">
         <f>$B19/$G$8*$E$8</f>
         <v>114.90978157644825</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="21">
         <f>$B19/$G$8*$F$8</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="18">
         <v>500</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="21">
         <f>$B20/$G$6*$D$6</f>
         <v>102.66159695817491</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="21">
         <f>$B20/$G$6*$E$6</f>
         <v>161.59695817490496</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="21">
         <f>$B20/$G$6*$F$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="18">
         <v>100</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="21">
         <f>$B21/$G$6*$D$6</f>
         <v>20.532319391634978</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="21">
         <f>$B21/$G$6*$E$6</f>
         <v>32.319391634980988</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="21">
         <f>$B21/$G$6*$F$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="18">
         <v>1250</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="21">
         <f>$B22/$G$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="21">
         <f>$B22/$G$9*$E$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="21">
         <f>$B22/$G$9*$F$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="19">
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="37">
+      <c r="C23" s="36"/>
+      <c r="D23" s="22">
         <f>SUBTOTAL(109,D13:D22)</f>
         <v>2218.8387575827578</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="22">
         <f t="shared" ref="E23:F23" si="1">SUBTOTAL(109,E13:E22)</f>
         <v>2967.8886466485078</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="22">
         <f t="shared" si="1"/>
         <v>4413.2725957687344</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="20">
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="38">
+      <c r="C24" s="37"/>
+      <c r="D24" s="23">
         <v>-2000</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="23">
         <v>-3000</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="23">
         <v>-4200</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="18">
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="36">
+      <c r="C25" s="38"/>
+      <c r="D25" s="21">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="21">
         <f>$E23+$E24</f>
         <v>-32.111353351492198</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="21">
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="D25:F25">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
@@ -1295,7 +1311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55370CAB-7114-4C69-9786-8ADBC35F7855}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1326,30 +1344,30 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="3">
         <v>54</v>
       </c>
@@ -1365,11 +1383,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="3">
         <v>10241</v>
       </c>
@@ -1385,11 +1403,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="3">
         <v>1104</v>
       </c>
@@ -1405,11 +1423,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="3">
         <v>1</v>
       </c>
@@ -1425,36 +1443,36 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1462,25 +1480,25 @@
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="21">
         <v>4000</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="21">
         <f>$B13/$G$7*$D$7</f>
         <v>886.30217010320439</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="21">
         <f>$B13/$G$7*$E$7</f>
         <v>1159.6962288236441</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="21">
         <f>$B13/$G$7*$F$7</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="21">
         <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
@@ -1489,25 +1507,25 @@
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="21">
         <v>2000</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="21">
         <f>$B14/$G$6*$D$6</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="21">
         <f>$B14/$G$6*$E$6</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="21">
         <f>$B14/$G$6*$F$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="21">
         <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
@@ -1516,25 +1534,25 @@
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="21">
         <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="21">
         <f>$B15/$G$6*$D$6</f>
         <v>41.064638783269956</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="21">
         <f>$B15/$G$6*$E$6</f>
         <v>64.638783269961976</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="21">
         <f>$B15/$G$6*$F$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1543,25 +1561,25 @@
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="21">
         <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="21">
         <f>$B16/$G$6*$D$6</f>
         <v>10.266159695817489</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="21">
         <f>$B16/$G$6*$E$6</f>
         <v>16.159695817490494</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="21">
         <f>$B16/$G$6*$F$6</f>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1570,25 +1588,25 @@
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="21">
         <v>800</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="21">
         <f>$B17/$G$6*$D$6</f>
         <v>164.25855513307982</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="21">
         <f>$B17/$G$6*$E$6</f>
         <v>258.55513307984791</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="21">
         <f>$B17/$G$6*$F$6</f>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1597,25 +1615,25 @@
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="21">
         <v>300</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="21">
         <f>$B18/$G$6*$D$6</f>
         <v>61.596958174904941</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="21">
         <f>$B18/$G$6*$E$6</f>
         <v>96.958174904942965</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="21">
         <f>$B18/$G$6*$F$6</f>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1624,25 +1642,25 @@
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="21">
         <v>400</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="21">
         <f>$B19/$G$8*$D$8</f>
         <v>104.84330484330485</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="21">
         <f>$B19/$G$8*$E$8</f>
         <v>114.90978157644825</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="21">
         <f>$B19/$G$8*$F$8</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1651,25 +1669,25 @@
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="21">
         <v>500</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="21">
         <f>$B20/$G$6*$D$6</f>
         <v>102.66159695817491</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="21">
         <f>$B20/$G$6*$E$6</f>
         <v>161.59695817490496</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="21">
         <f>$B20/$G$6*$F$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1678,25 +1696,25 @@
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="21">
         <v>100</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="21">
         <f>$B21/$G$6*$D$6</f>
         <v>20.532319391634978</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="21">
         <f>$B21/$G$6*$E$6</f>
         <v>32.319391634980988</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="21">
         <f>$B21/$G$6*$F$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1705,74 +1723,74 @@
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="21">
         <v>1250</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="21">
         <f>$B22/$G$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="21">
         <f>$B22/$G$9*$E$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="21">
         <f>$B22/$G$9*$F$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="22">
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="37">
+      <c r="C23" s="36"/>
+      <c r="D23" s="22">
         <f>SUBTOTAL(109,D13:D22)</f>
         <v>2218.8387575827578</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="22">
         <f t="shared" ref="E23:F23" si="1">SUBTOTAL(109,E13:E22)</f>
         <v>2967.8886466485078</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="22">
         <f t="shared" si="1"/>
         <v>4413.2725957687344</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="23">
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="38">
+      <c r="C24" s="37"/>
+      <c r="D24" s="23">
         <v>-2000</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="23">
         <v>-3000</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="23">
         <v>-4200</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1781,84 +1799,93 @@
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="21">
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="36">
+      <c r="C25" s="38"/>
+      <c r="D25" s="21">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="21">
         <f>$E23+$E24</f>
         <v>-32.111353351492198</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="21">
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <v>10</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="18">
         <f>$F$23/12*10</f>
         <v>3677.727163140612</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="18">
         <v>-3500</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="18">
         <f t="shared" ref="E28:E29" si="2">$C28+$D28</f>
         <v>177.72716314061199</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="7">
         <v>2</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="18">
         <f>$F$23/12*2</f>
         <v>735.5454326281224</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="18">
         <v>-700</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="18">
         <f t="shared" si="2"/>
         <v>35.545432628122398</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
   <conditionalFormatting sqref="D25:F25">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>

--- a/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F82E3B-521E-491C-8A73-C2319A32A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FA4896-508A-4C60-8D24-CD0FB266C49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -344,6 +344,24 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -353,15 +371,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -379,15 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,11 +807,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
@@ -826,11 +826,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="6">
         <v>54</v>
       </c>
@@ -846,11 +846,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6">
         <v>10241</v>
       </c>
@@ -866,11 +866,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="6">
         <v>1104</v>
       </c>
@@ -886,11 +886,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="6">
         <v>1</v>
       </c>
@@ -906,11 +906,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1217,7 +1217,7 @@
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="22">
         <f>SUBTOTAL(109,D13:D22)</f>
         <v>2218.8387575827578</v>
@@ -1243,7 +1243,7 @@
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="23">
         <v>-2000</v>
       </c>
@@ -1266,7 +1266,7 @@
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="21">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
@@ -1344,11 +1344,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
@@ -1363,11 +1363,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="3">
         <v>54</v>
       </c>
@@ -1383,11 +1383,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="3">
         <v>10241</v>
       </c>
@@ -1403,11 +1403,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="3">
         <v>1104</v>
       </c>
@@ -1423,11 +1423,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="3">
         <v>1</v>
       </c>
@@ -1443,11 +1443,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1754,7 +1754,7 @@
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="22">
         <f>SUBTOTAL(109,D13:D22)</f>
         <v>2218.8387575827578</v>
@@ -1780,7 +1780,7 @@
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="23">
         <v>-2000</v>
       </c>
@@ -1803,7 +1803,7 @@
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="21">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>

--- a/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FA4896-508A-4C60-8D24-CD0FB266C49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD80A9A-2924-4089-8FEE-1C96389BF5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
     <sheet name="Conguagli spese" sheetId="4" r:id="rId1"/>
@@ -190,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -274,24 +274,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -357,9 +344,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,7 +760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E87A6D9-8C65-45B6-8476-D92DBFA04469}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -807,11 +793,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1252,7 @@
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="21">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
@@ -1311,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55370CAB-7114-4C69-9786-8ADBC35F7855}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,11 +1330,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
@@ -1363,11 +1349,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="3">
         <v>54</v>
       </c>
@@ -1383,11 +1369,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="3">
         <v>10241</v>
       </c>
@@ -1403,11 +1389,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="3">
         <v>1104</v>
       </c>
@@ -1423,11 +1409,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="3">
         <v>1</v>
       </c>
@@ -1443,11 +1429,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1803,7 +1789,7 @@
         <f>SUM($D25:$F25)</f>
         <v>400</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="21">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>

--- a/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD80A9A-2924-4089-8FEE-1C96389BF5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E9B9E-B4D1-444D-B341-F7089599F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
     <sheet name="Conguagli spese" sheetId="4" r:id="rId1"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E87A6D9-8C65-45B6-8476-D92DBFA04469}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55370CAB-7114-4C69-9786-8ADBC35F7855}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliariAffitti.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E9B9E-B4D1-444D-B341-F7089599F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C390F5AB-03ED-42D0-BDE5-2FD397C68D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="57480" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
-    <sheet name="Conguagli spese" sheetId="4" r:id="rId1"/>
-    <sheet name="Conguagli spese Pro-rata" sheetId="5" r:id="rId2"/>
+    <sheet name="Conguagli" sheetId="4" r:id="rId1"/>
+    <sheet name="Conguagli pro-rata" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
   <si>
     <t>Riscaldamento</t>
   </si>
@@ -69,15 +69,6 @@
     <t>Tv</t>
   </si>
   <si>
-    <t>Acconti richiesti</t>
-  </si>
-  <si>
-    <t>Conguaglio spese</t>
-  </si>
-  <si>
-    <t>Spesa da ripartire</t>
-  </si>
-  <si>
     <t>App. 1</t>
   </si>
   <si>
@@ -96,21 +87,9 @@
     <t>Totale</t>
   </si>
   <si>
-    <t>Stabile Cedro</t>
-  </si>
-  <si>
-    <t>Ripartizione delle spese di riscaldamento e accessorie</t>
-  </si>
-  <si>
     <t>Periodo:</t>
   </si>
   <si>
-    <t>Tipo di ripartizione</t>
-  </si>
-  <si>
-    <t>consumo</t>
-  </si>
-  <si>
     <t>altro</t>
   </si>
   <si>
@@ -142,6 +121,21 @@
   </si>
   <si>
     <t>Controllo</t>
+  </si>
+  <si>
+    <t>Suddivisione delle spese rimborsabili agli inquilini</t>
+  </si>
+  <si>
+    <t>Nome Stabile</t>
+  </si>
+  <si>
+    <t>Tipo di suddivisione</t>
+  </si>
+  <si>
+    <t>Spesa da suddividere</t>
+  </si>
+  <si>
+    <t>Anticipi richiesti</t>
   </si>
 </sst>
 </file>
@@ -278,16 +272,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,15 +297,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -355,29 +334,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -761,7 +739,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,500 +751,482 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>45292</v>
+        <v>46023</v>
       </c>
       <c r="C3" s="2">
-        <v>45657</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="A5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="6">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="4">
         <v>54</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>85</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>124</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f>SUM($D6:$F6)</f>
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="6">
-        <v>10241</v>
-      </c>
-      <c r="E7" s="7">
-        <v>13400</v>
-      </c>
-      <c r="F7" s="7">
-        <v>22578</v>
-      </c>
-      <c r="G7" s="7">
-        <f>SUM($D7:$F7)</f>
-        <v>46219</v>
-      </c>
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="6">
-        <v>1104</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1210</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1898</v>
-      </c>
-      <c r="G8" s="7">
-        <f>SUM($D8:$F8)</f>
-        <v>4212</v>
-      </c>
+      <c r="A8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="6">
+      <c r="A9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f>SUM($D9:$F9)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="13">
         <v>4000</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="21">
-        <f>$B13/$G$7*$D$7</f>
-        <v>886.30217010320439</v>
-      </c>
-      <c r="E13" s="21">
-        <f>$B13/$G$7*$E$7</f>
-        <v>1159.6962288236441</v>
-      </c>
-      <c r="F13" s="21">
-        <f>$B13/$G$7*$F$7</f>
-        <v>1954.0016010731517</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="16">
+        <f>$B13/$G$6*D$6</f>
+        <v>821.29277566539929</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" ref="E13:F13" si="0">$B13/$G$6*E$6</f>
+        <v>1292.7756653992396</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>1885.9315589353612</v>
+      </c>
+      <c r="G13" s="16">
         <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="13">
         <v>2000</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="16">
         <f>$B14/$G$6*$D$6</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="16">
         <f>$B14/$G$6*$E$6</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="16">
         <f>$B14/$G$6*$F$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="21">
-        <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
+      <c r="G14" s="16">
+        <f t="shared" ref="G14:G25" si="1">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="13">
         <v>200</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16">
         <f>$B15/$G$6*$D$6</f>
         <v>41.064638783269956</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="16">
         <f>$B15/$G$6*$E$6</f>
         <v>64.638783269961976</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="16">
         <f>$B15/$G$6*$F$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="21">
-        <f t="shared" si="0"/>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="13">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16">
         <f>$B16/$G$6*$D$6</f>
         <v>10.266159695817489</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="16">
         <f>$B16/$G$6*$E$6</f>
         <v>16.159695817490494</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="16">
         <f>$B16/$G$6*$F$6</f>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="21">
-        <f t="shared" si="0"/>
+      <c r="G16" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="13">
         <v>800</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="21">
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="16">
         <f>$B17/$G$6*$D$6</f>
         <v>164.25855513307982</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="16">
         <f>$B17/$G$6*$E$6</f>
         <v>258.55513307984791</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="16">
         <f>$B17/$G$6*$F$6</f>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="21">
-        <f t="shared" si="0"/>
+      <c r="G17" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="13">
         <v>300</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="16">
         <f>$B18/$G$6*$D$6</f>
         <v>61.596958174904941</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="16">
         <f>$B18/$G$6*$E$6</f>
         <v>96.958174904942965</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="16">
         <f>$B18/$G$6*$F$6</f>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="21">
-        <f t="shared" si="0"/>
+      <c r="G18" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="13">
         <v>400</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="21">
-        <f>$B19/$G$8*$D$8</f>
-        <v>104.84330484330485</v>
-      </c>
-      <c r="E19" s="21">
-        <f>$B19/$G$8*$E$8</f>
-        <v>114.90978157644825</v>
-      </c>
-      <c r="F19" s="21">
-        <f>$B19/$G$8*$F$8</f>
-        <v>180.24691358024694</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="0"/>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="16">
+        <f>$B19/$G$6*D$6</f>
+        <v>82.129277566539912</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" ref="E19:F19" si="2">$B19/$G$6*E$6</f>
+        <v>129.27756653992395</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="2"/>
+        <v>188.59315589353611</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="13">
         <v>500</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="16">
         <f>$B20/$G$6*$D$6</f>
         <v>102.66159695817491</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="16">
         <f>$B20/$G$6*$E$6</f>
         <v>161.59695817490496</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="16">
         <f>$B20/$G$6*$F$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="21">
-        <f t="shared" si="0"/>
+      <c r="G20" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="13">
         <v>100</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="16">
         <f>$B21/$G$6*$D$6</f>
         <v>20.532319391634978</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="16">
         <f>$B21/$G$6*$E$6</f>
         <v>32.319391634980988</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="16">
         <f>$B21/$G$6*$F$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="21">
-        <f t="shared" si="0"/>
+      <c r="G21" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="13">
         <v>1250</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="16">
         <f>$B22/$G$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="16">
         <f>$B22/$G$9*$E$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="16">
         <f>$B22/$G$9*$F$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="21">
-        <f t="shared" si="0"/>
+      <c r="G22" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="19">
+      <c r="A23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14">
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="22">
+      <c r="C23" s="22"/>
+      <c r="D23" s="17">
         <f>SUBTOTAL(109,D13:D22)</f>
-        <v>2218.8387575827578</v>
-      </c>
-      <c r="E23" s="22">
-        <f t="shared" ref="E23:F23" si="1">SUBTOTAL(109,E13:E22)</f>
-        <v>2967.8886466485078</v>
-      </c>
-      <c r="F23" s="22">
-        <f t="shared" si="1"/>
-        <v>4413.2725957687344</v>
-      </c>
-      <c r="G23" s="22">
-        <f t="shared" si="0"/>
+        <v>2131.1153358681877</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" ref="E23:F23" si="3">SUBTOTAL(109,E13:E22)</f>
+        <v>3115.3358681875793</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="3"/>
+        <v>4353.5487959442335</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="20">
+      <c r="A24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="15">
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="23">
-        <v>-2000</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="C24" s="23"/>
+      <c r="D24" s="18">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="18">
         <v>-3000</v>
       </c>
-      <c r="F24" s="23">
-        <v>-4200</v>
-      </c>
-      <c r="G24" s="23">
-        <f t="shared" si="0"/>
+      <c r="F24" s="18">
+        <v>-4000</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="18">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="13">
         <f>SUM($D25:$F25)</f>
-        <v>400</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="21">
+        <v>400.00000000000045</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="16">
         <f>$D23+$D24</f>
-        <v>218.83875758275781</v>
-      </c>
-      <c r="E25" s="21">
+        <v>-68.884664131812315</v>
+      </c>
+      <c r="E25" s="16">
         <f>$E23+$E24</f>
-        <v>-32.111353351492198</v>
-      </c>
-      <c r="F25" s="21">
+        <v>115.33586818757931</v>
+      </c>
+      <c r="F25" s="16">
         <f>$F23+$F24</f>
-        <v>213.27259576873439</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="0"/>
+        <v>353.54879594423346</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1281,15 +1241,18 @@
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G19" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1298,7 +1261,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,569 +1273,551 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>45292</v>
+        <v>46023</v>
       </c>
       <c r="C3" s="2">
-        <v>45657</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="17" t="s">
-        <v>13</v>
+      <c r="A5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="3">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="4">
         <v>54</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>85</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>124</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <f>SUM($D6:$F6)</f>
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="3">
-        <v>10241</v>
-      </c>
-      <c r="E7" s="4">
-        <v>13400</v>
-      </c>
-      <c r="F7" s="4">
-        <v>22578</v>
-      </c>
-      <c r="G7" s="4">
-        <f>SUM($D7:$F7)</f>
-        <v>46219</v>
-      </c>
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="3">
-        <v>1104</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1210</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1898</v>
-      </c>
-      <c r="G8" s="4">
-        <f>SUM($D8:$F8)</f>
-        <v>4212</v>
-      </c>
+      <c r="A8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="3">
+      <c r="A9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <f>SUM($D9:$F9)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="21">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="13">
         <v>4000</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="21">
-        <f>$B13/$G$7*$D$7</f>
-        <v>886.30217010320439</v>
-      </c>
-      <c r="E13" s="21">
-        <f>$B13/$G$7*$E$7</f>
-        <v>1159.6962288236441</v>
-      </c>
-      <c r="F13" s="21">
-        <f>$B13/$G$7*$F$7</f>
-        <v>1954.0016010731517</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="16">
+        <f>$B13/$G$6*D$6</f>
+        <v>821.29277566539929</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" ref="E13:F13" si="0">$B13/$G$6*E$6</f>
+        <v>1292.7756653992396</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>1885.9315589353612</v>
+      </c>
+      <c r="G13" s="16">
         <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="13">
         <v>2000</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="16">
         <f>$B14/$G$6*$D$6</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="16">
         <f>$B14/$G$6*$E$6</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="16">
         <f>$B14/$G$6*$F$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="21">
-        <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
+      <c r="G14" s="16">
+        <f t="shared" ref="G14:G25" si="1">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="13">
         <v>200</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16">
         <f>$B15/$G$6*$D$6</f>
         <v>41.064638783269956</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="16">
         <f>$B15/$G$6*$E$6</f>
         <v>64.638783269961976</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="16">
         <f>$B15/$G$6*$F$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="21">
-        <f t="shared" si="0"/>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="13">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16">
         <f>$B16/$G$6*$D$6</f>
         <v>10.266159695817489</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="16">
         <f>$B16/$G$6*$E$6</f>
         <v>16.159695817490494</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="16">
         <f>$B16/$G$6*$F$6</f>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="21">
-        <f t="shared" si="0"/>
+      <c r="G16" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="13">
         <v>800</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="21">
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="16">
         <f>$B17/$G$6*$D$6</f>
         <v>164.25855513307982</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="16">
         <f>$B17/$G$6*$E$6</f>
         <v>258.55513307984791</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="16">
         <f>$B17/$G$6*$F$6</f>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="21">
-        <f t="shared" si="0"/>
+      <c r="G17" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="13">
         <v>300</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="16">
         <f>$B18/$G$6*$D$6</f>
         <v>61.596958174904941</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="16">
         <f>$B18/$G$6*$E$6</f>
         <v>96.958174904942965</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="16">
         <f>$B18/$G$6*$F$6</f>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="21">
-        <f t="shared" si="0"/>
+      <c r="G18" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="13">
         <v>400</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="21">
-        <f>$B19/$G$8*$D$8</f>
-        <v>104.84330484330485</v>
-      </c>
-      <c r="E19" s="21">
-        <f>$B19/$G$8*$E$8</f>
-        <v>114.90978157644825</v>
-      </c>
-      <c r="F19" s="21">
-        <f>$B19/$G$8*$F$8</f>
-        <v>180.24691358024694</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="0"/>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="16">
+        <f>$B19/$G$6*D$6</f>
+        <v>82.129277566539912</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" ref="E19:F19" si="2">$B19/$G$6*E$6</f>
+        <v>129.27756653992395</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="2"/>
+        <v>188.59315589353611</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="13">
         <v>500</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="16">
         <f>$B20/$G$6*$D$6</f>
         <v>102.66159695817491</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="16">
         <f>$B20/$G$6*$E$6</f>
         <v>161.59695817490496</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="16">
         <f>$B20/$G$6*$F$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="21">
-        <f t="shared" si="0"/>
+      <c r="G20" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="13">
         <v>100</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="16">
         <f>$B21/$G$6*$D$6</f>
         <v>20.532319391634978</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="16">
         <f>$B21/$G$6*$E$6</f>
         <v>32.319391634980988</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="16">
         <f>$B21/$G$6*$F$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="21">
-        <f t="shared" si="0"/>
+      <c r="G21" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="13">
         <v>1250</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="16">
         <f>$B22/$G$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="16">
         <f>$B22/$G$9*$E$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="16">
         <f>$B22/$G$9*$F$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="21">
-        <f t="shared" si="0"/>
+      <c r="G22" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="22">
+      <c r="A23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14">
         <f>SUBTOTAL(109,B13:B22)</f>
         <v>9600</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="22">
+      <c r="C23" s="22"/>
+      <c r="D23" s="17">
         <f>SUBTOTAL(109,D13:D22)</f>
-        <v>2218.8387575827578</v>
-      </c>
-      <c r="E23" s="22">
-        <f t="shared" ref="E23:F23" si="1">SUBTOTAL(109,E13:E22)</f>
-        <v>2967.8886466485078</v>
-      </c>
-      <c r="F23" s="22">
-        <f t="shared" si="1"/>
-        <v>4413.2725957687344</v>
-      </c>
-      <c r="G23" s="22">
-        <f t="shared" si="0"/>
+        <v>2131.1153358681877</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" ref="E23:F23" si="3">SUBTOTAL(109,E13:E22)</f>
+        <v>3115.3358681875793</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="3"/>
+        <v>4353.5487959442335</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="23">
+      <c r="A24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="15">
         <f>SUM($D24:$F24)</f>
         <v>-9200</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="23">
-        <v>-2000</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="C24" s="23"/>
+      <c r="D24" s="18">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="18">
         <v>-3000</v>
       </c>
-      <c r="F24" s="23">
-        <v>-4200</v>
-      </c>
-      <c r="G24" s="23">
-        <f t="shared" si="0"/>
+      <c r="F24" s="18">
+        <v>-4000</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="21">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="13">
         <f>SUM($D25:$F25)</f>
-        <v>400</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="21">
+        <v>400.00000000000045</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="16">
         <f>$D23+$D24</f>
-        <v>218.83875758275781</v>
-      </c>
-      <c r="E25" s="21">
+        <v>-68.884664131812315</v>
+      </c>
+      <c r="E25" s="16">
         <f>$E23+$E24</f>
-        <v>-32.111353351492198</v>
-      </c>
-      <c r="F25" s="21">
+        <v>115.33586818757931</v>
+      </c>
+      <c r="F25" s="16">
         <f>$F23+$F24</f>
-        <v>213.27259576873439</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="0"/>
+        <v>353.54879594423346</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>33</v>
+      <c r="A27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5">
         <v>10</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="13">
         <f>$F$23/12*10</f>
-        <v>3677.727163140612</v>
-      </c>
-      <c r="D28" s="18">
+        <v>3627.9573299535282</v>
+      </c>
+      <c r="D28" s="13">
         <v>-3500</v>
       </c>
-      <c r="E28" s="18">
-        <f t="shared" ref="E28:E29" si="2">$C28+$D28</f>
-        <v>177.72716314061199</v>
+      <c r="E28" s="13">
+        <f t="shared" ref="E28:E29" si="4">$C28+$D28</f>
+        <v>127.95732995352819</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="A29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5">
         <v>2</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="13">
         <f>$F$23/12*2</f>
-        <v>735.5454326281224</v>
-      </c>
-      <c r="D29" s="18">
-        <v>-700</v>
-      </c>
-      <c r="E29" s="18">
-        <f t="shared" si="2"/>
-        <v>35.545432628122398</v>
+        <v>725.59146599070561</v>
+      </c>
+      <c r="D29" s="13">
+        <v>-500</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="4"/>
+        <v>225.59146599070561</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
   </mergeCells>
-  <conditionalFormatting sqref="D25:F25">
+  <conditionalFormatting sqref="E28:E29">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -1880,7 +1825,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
+  <conditionalFormatting sqref="D25:F25">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -1889,5 +1834,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D19:F19" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>